--- a/20240914 - Data.xlsx
+++ b/20240914 - Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\tutoring-school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DC9693-C6DB-414C-AEED-1485E61EF1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43C957-E702-4AAF-98B3-E7EA0E17E8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="14" xr2:uid="{E053B55C-EE4D-4A44-BED7-23BE03F9DD4F}"/>
+    <workbookView xWindow="70320" yWindow="1770" windowWidth="17280" windowHeight="8910" firstSheet="8" activeTab="10" xr2:uid="{E053B55C-EE4D-4A44-BED7-23BE03F9DD4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Persona" sheetId="4" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="413">
   <si>
     <t>DPI</t>
   </si>
@@ -1352,8 +1352,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1426,7 +1427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1447,6 +1448,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3251,10 +3261,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEC2813-E6D4-4189-B69D-83FF52F8F158}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3271,268 +3281,332 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6">
+      <c r="A2" s="15">
         <v>3944372839685</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6">
+      <c r="A3" s="15">
         <v>3944372839685</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6">
+      <c r="A4" s="15">
         <v>3944372839685</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6">
+      <c r="A5" s="15">
         <v>3944372839685</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6">
+      <c r="A6" s="15">
         <v>3944372839685</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6">
+      <c r="A7" s="15">
         <v>3944372839685</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="14">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15">
+        <v>3944372839685</v>
+      </c>
+      <c r="B8" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15">
+        <v>3944372839685</v>
+      </c>
+      <c r="B9" s="13">
         <v>8</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="15">
         <v>3944372839685</v>
       </c>
-      <c r="B8">
+      <c r="B10" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="15">
+        <v>3944372839685</v>
+      </c>
+      <c r="B11" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="15">
+        <v>3944372839685</v>
+      </c>
+      <c r="B12" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="15">
+        <v>3944372839685</v>
+      </c>
+      <c r="B13" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="15">
+        <v>3944372839685</v>
+      </c>
+      <c r="B14" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="15">
+        <v>3944372839685</v>
+      </c>
+      <c r="B15" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="15">
+        <v>3944372839685</v>
+      </c>
+      <c r="B16" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="15">
+        <v>3944372839685</v>
+      </c>
+      <c r="B17" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15">
+        <v>4553996106396</v>
+      </c>
+      <c r="B18" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15">
+        <v>7467950263827</v>
+      </c>
+      <c r="B19" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="15">
+        <v>9053992434810</v>
+      </c>
+      <c r="B20" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="15">
+        <v>4344464959624</v>
+      </c>
+      <c r="B21" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="15">
+        <v>9020462756578</v>
+      </c>
+      <c r="B22" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="15">
+        <v>9065653957149</v>
+      </c>
+      <c r="B23" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="15">
+        <v>6864571495692</v>
+      </c>
+      <c r="B24" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="15">
+        <v>8788315942398</v>
+      </c>
+      <c r="B25" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="15">
+        <v>9993103095480</v>
+      </c>
+      <c r="B26" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="15">
+        <v>9065653957149</v>
+      </c>
+      <c r="B27" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="15">
+        <v>8788315942398</v>
+      </c>
+      <c r="B28" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="15">
+        <v>7012755065577</v>
+      </c>
+      <c r="B29" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15">
+        <v>9065653957149</v>
+      </c>
+      <c r="B30" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="15">
+        <v>4553996106396</v>
+      </c>
+      <c r="B31" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="15">
+        <v>7012755065577</v>
+      </c>
+      <c r="B32" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="15">
+        <v>9065653957149</v>
+      </c>
+      <c r="B33" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="15">
+        <v>9993103095480</v>
+      </c>
+      <c r="B34" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="15">
+        <v>9020462756578</v>
+      </c>
+      <c r="B35" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="15">
         <v>3944372839685</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6">
-        <v>3944372839685</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6">
-        <v>3944372839685</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6">
+      <c r="B36" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="15">
+        <v>7467950263827</v>
+      </c>
+      <c r="B37" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="15">
+        <v>6864571495692</v>
+      </c>
+      <c r="B38" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="15">
         <v>4553996106396</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="6">
-        <v>7467950263827</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6">
+      <c r="B39" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="15">
+        <v>6864571495692</v>
+      </c>
+      <c r="B40" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="15">
+        <v>5927862084448</v>
+      </c>
+      <c r="B41" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="15">
         <v>9053992434810</v>
       </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6">
-        <v>4344464959624</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6">
-        <v>9020462756578</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="6">
-        <v>9065653957149</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="6">
-        <v>6864571495692</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="6">
-        <v>8788315942398</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="6">
-        <v>9993103095480</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="6">
-        <v>9065653957149</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="6">
-        <v>8788315942398</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="6">
-        <v>7012755065577</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6">
-        <v>9065653957149</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="6">
-        <v>4553996106396</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="6">
-        <v>7012755065577</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="6">
-        <v>9065653957149</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="6">
-        <v>9020462756578</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="6">
-        <v>7467950263827</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="6">
-        <v>6864571495692</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="6">
-        <v>4553996106396</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="6">
-        <v>6864571495692</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="6">
-        <v>5927862084448</v>
-      </c>
-      <c r="B33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="6">
-        <v>9053992434810</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
+      <c r="B42" s="13">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5117,10 +5191,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62504649-4DC1-4907-8688-CAEFF9821075}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5383,164 +5457,164 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6">
-        <v>5927862084448</v>
+        <v>4553996106396</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6">
-        <v>4553996106396</v>
+        <v>6864571495692</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6">
-        <v>6864571495692</v>
+        <v>7012755065577</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6">
-        <v>7012755065577</v>
+        <v>8627849786318</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6">
-        <v>8627849786318</v>
+        <v>3944372839685</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6">
-        <v>3944372839685</v>
+        <v>8788315942398</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6">
-        <v>8788315942398</v>
+        <v>5927862084448</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6">
-        <v>9065653957149</v>
+        <v>5927862084448</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6">
-        <v>5927862084448</v>
+        <v>3944372839685</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6">
-        <v>5927862084448</v>
+        <v>9993103095480</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>380</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6">
-        <v>3944372839685</v>
+        <v>9065653957149</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6">
-        <v>9993103095480</v>
+        <v>3944372839685</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>369</v>
@@ -5551,128 +5625,128 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6">
-        <v>9065653957149</v>
+        <v>3944372839685</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6">
-        <v>3944372839685</v>
+        <v>6864571495692</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6">
-        <v>3944372839685</v>
+        <v>8627849786318</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6">
-        <v>6864571495692</v>
+        <v>8788315942398</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6">
-        <v>8627849786318</v>
+        <v>9020462756578</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6">
-        <v>8788315942398</v>
+        <v>9993103095480</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>374</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6">
-        <v>9020462756578</v>
+        <v>7012755065577</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6">
-        <v>9993103095480</v>
+        <v>4344464959624</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6">
-        <v>7012755065577</v>
+        <v>9993103095480</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5680,139 +5754,139 @@
         <v>4344464959624</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6">
-        <v>9993103095480</v>
+        <v>9053992434810</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>379</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6">
-        <v>4344464959624</v>
+        <v>3944372839685</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6">
-        <v>9053992434810</v>
+        <v>4344464959624</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>379</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6">
-        <v>3944372839685</v>
+        <v>9053992434810</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6">
-        <v>4344464959624</v>
+        <v>3944372839685</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6">
-        <v>9053992434810</v>
+        <v>4344464959624</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6">
-        <v>3944372839685</v>
+        <v>9053992434810</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6">
-        <v>4344464959624</v>
+        <v>7467950263827</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6">
-        <v>9053992434810</v>
+        <v>4344464959624</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5820,63 +5894,63 @@
         <v>7467950263827</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6">
-        <v>4344464959624</v>
+        <v>4553996106396</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6">
-        <v>9053992434810</v>
+        <v>7467950263827</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6">
-        <v>7467950263827</v>
+        <v>7012755065577</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6">
-        <v>4553996106396</v>
+        <v>9020462756578</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>368</v>
@@ -5887,24 +5961,24 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6">
-        <v>7467950263827</v>
+        <v>7012755065577</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6">
-        <v>7012755065577</v>
+        <v>9053992434810</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>364</v>
@@ -5915,197 +5989,141 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6">
-        <v>9020462756578</v>
+        <v>5927862084448</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6">
-        <v>5927862084448</v>
+        <v>4553996106396</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6">
-        <v>7012755065577</v>
+        <v>8627849786318</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6">
-        <v>9053992434810</v>
+        <v>5927862084448</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6">
-        <v>5927862084448</v>
+        <v>3944372839685</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6">
-        <v>4553996106396</v>
+        <v>7467950263827</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6">
-        <v>8627849786318</v>
+        <v>6864571495692</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6">
-        <v>5927862084448</v>
+        <v>4344464959624</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6">
-        <v>3944372839685</v>
+        <v>4553996106396</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6">
-        <v>7467950263827</v>
+        <v>4344464959624</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>377</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="6">
-        <v>6864571495692</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="6">
-        <v>4344464959624</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="6">
-        <v>4553996106396</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="6">
-        <v>4344464959624</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D70" s="8" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8859,10 +8877,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013CA7C6-0CEB-4F0F-8A7A-8B7E2CDA1ED4}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9008,15 +9026,15 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5">
-        <v>5802679301269</v>
+        <v>6527467061490</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
-        <v>6527467061490</v>
+        <v>6907021718251</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -9024,7 +9042,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5">
-        <v>6907021718251</v>
+        <v>2068861653660</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -9032,71 +9050,71 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5">
-        <v>2068861653660</v>
+        <v>4574420159811</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5">
-        <v>4574420159811</v>
+        <v>4057514987321</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5">
-        <v>4057514987321</v>
+        <v>8684196218974</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5">
-        <v>8684196218974</v>
+        <v>6479294894058</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
-        <v>6479294894058</v>
+        <v>9895411079230</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5">
-        <v>9895411079230</v>
+        <v>2681464925861</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
-        <v>2681464925861</v>
+        <v>6419485261947</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
-        <v>6419485261947</v>
+        <v>7326156881548</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
-        <v>7326156881548</v>
+        <v>4029810848911</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -9104,15 +9122,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
-        <v>4029810848911</v>
+        <v>8369996553683</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5">
-        <v>8369996553683</v>
+        <v>8229257269831</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -9120,23 +9138,23 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5">
-        <v>8229257269831</v>
+        <v>1336009927754</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5">
-        <v>8384865598472</v>
+        <v>1059522799033</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5">
-        <v>1336009927754</v>
+        <v>7012755065577</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -9144,49 +9162,17 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5">
-        <v>1059522799033</v>
+        <v>3686574519495</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5">
-        <v>3463786339123</v>
+        <v>4360823702923</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5">
-        <v>7012755065577</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="5">
-        <v>7012755065577</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="5">
-        <v>3686574519495</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="5">
-        <v>4360823702923</v>
-      </c>
-      <c r="B38">
         <v>1</v>
       </c>
     </row>

--- a/20240914 - Data.xlsx
+++ b/20240914 - Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\tutoring-school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43C957-E702-4AAF-98B3-E7EA0E17E8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452B9490-4073-4A7E-A8EB-AB378608446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70320" yWindow="1770" windowWidth="17280" windowHeight="8910" firstSheet="8" activeTab="10" xr2:uid="{E053B55C-EE4D-4A44-BED7-23BE03F9DD4F}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="9" xr2:uid="{E053B55C-EE4D-4A44-BED7-23BE03F9DD4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Persona" sheetId="4" r:id="rId1"/>
@@ -1354,7 +1354,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1455,7 +1455,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2972,7 +2972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9E211F-CA5C-428B-BD4B-D943D5F61C98}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -3263,7 +3263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEC2813-E6D4-4189-B69D-83FF52F8F158}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
